--- a/hasil/pemodelan/hasil_eksperimen.xlsx
+++ b/hasil/pemodelan/hasil_eksperimen.xlsx
@@ -2,28 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="raw" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -37,12 +41,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -55,14 +74,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,92 +456,92 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>time</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>time_step</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>layer</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>dense</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>dropout_rate</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>epochs</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>batch_size</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>train_mse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>test_mse</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>train_mae</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>test_mae</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>train_rmse</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>test_rmse</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>train_mape</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>test_mape</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>train_r2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>test_r2</t>
         </is>
@@ -528,12 +550,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15-10-2025 11:27:04</t>
+          <t>20-10-2025 07:55:04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>(Trial) LSTM</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -544,58 +566,58 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[64, 32]</t>
+          <t>[116, 104]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>32</v>
+        <v>512</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001</v>
+        <v>202682.6933537617</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002</v>
+        <v>224262.0837654436</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01</v>
+        <v>370.6448896737589</v>
       </c>
       <c r="L2" t="n">
-        <v>0.015</v>
+        <v>379.7334116589051</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03</v>
+        <v>450.2029468514858</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04</v>
+        <v>473.5631782195946</v>
       </c>
       <c r="O2" t="n">
-        <v>2.1</v>
+        <v>0.05562012298415284</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>0.04663062424218874</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.98</v>
+        <v>0.7847687076324669</v>
       </c>
       <c r="R2" t="n">
-        <v>0.97</v>
+        <v>0.7815445260916931</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>15-10-2025 11:27:10</t>
+          <t>20-10-2025 07:58:59</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>(Trial) LSTM</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -606,58 +628,58 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[64, 32]</t>
+          <t>[116, 104]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>32</v>
+        <v>512</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001</v>
+        <v>202682.6933537617</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002</v>
+        <v>224262.0837654436</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01</v>
+        <v>370.6448896737589</v>
       </c>
       <c r="L3" t="n">
-        <v>0.015</v>
+        <v>379.7334116589051</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03</v>
+        <v>450.2029468514858</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04</v>
+        <v>473.5631782195946</v>
       </c>
       <c r="O3" t="n">
-        <v>2.1</v>
+        <v>0.05562012298415284</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>0.04663062424218874</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.98</v>
+        <v>0.7847687076324669</v>
       </c>
       <c r="R3" t="n">
-        <v>0.97</v>
+        <v>0.7815445260916931</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15-10-2025 11:42:41</t>
+          <t>20-10-2025 07:59:25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>(Trial) LSTM</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -668,47 +690,605 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>[116, 104]</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>512</v>
+      </c>
+      <c r="I4" t="n">
+        <v>202682.6933537617</v>
+      </c>
+      <c r="J4" t="n">
+        <v>224262.0837654436</v>
+      </c>
+      <c r="K4" t="n">
+        <v>370.6448896737589</v>
+      </c>
+      <c r="L4" t="n">
+        <v>379.7334116589051</v>
+      </c>
+      <c r="M4" t="n">
+        <v>450.2029468514858</v>
+      </c>
+      <c r="N4" t="n">
+        <v>473.5631782195946</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.05562012298415284</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.04663062424218874</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.7847687076324669</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.7815445260916931</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20-10-2025 08:00:17</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>(Trial) LSTM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[116, 104]</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>512</v>
+      </c>
+      <c r="I5" t="n">
+        <v>202682.6933537617</v>
+      </c>
+      <c r="J5" t="n">
+        <v>224262.0837654436</v>
+      </c>
+      <c r="K5" t="n">
+        <v>370.6448896737589</v>
+      </c>
+      <c r="L5" t="n">
+        <v>379.7334116589051</v>
+      </c>
+      <c r="M5" t="n">
+        <v>450.2029468514858</v>
+      </c>
+      <c r="N5" t="n">
+        <v>473.5631782195946</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.05562012298415284</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.04663062424218874</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.7847687076324669</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.7815445260916931</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20-10-2025 08:01:13</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>(Trial) LSTM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[116, 104]</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>512</v>
+      </c>
+      <c r="I6" t="n">
+        <v>202682.6933537617</v>
+      </c>
+      <c r="J6" t="n">
+        <v>224262.0837654436</v>
+      </c>
+      <c r="K6" t="n">
+        <v>370.6448896737589</v>
+      </c>
+      <c r="L6" t="n">
+        <v>379.7334116589051</v>
+      </c>
+      <c r="M6" t="n">
+        <v>450.2029468514858</v>
+      </c>
+      <c r="N6" t="n">
+        <v>473.5631782195946</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.05562012298415284</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.04663062424218874</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.7847687076324669</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.7815445260916931</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20-10-2025 08:04:53</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>(Trial) BiLSTM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[116, 104]</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>512</v>
+      </c>
+      <c r="I7" t="n">
+        <v>165699.7787054983</v>
+      </c>
+      <c r="J7" t="n">
+        <v>211838.3239061992</v>
+      </c>
+      <c r="K7" t="n">
+        <v>333.0405589018411</v>
+      </c>
+      <c r="L7" t="n">
+        <v>363.6790868600463</v>
+      </c>
+      <c r="M7" t="n">
+        <v>407.062376922135</v>
+      </c>
+      <c r="N7" t="n">
+        <v>460.2589748241735</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0499071823672609</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.04439665493294193</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.8240413301036612</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.7936466142076438</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20-10-2025 08:05:51</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>(Trial) BiLSTM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[116, 104]</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>512</v>
+      </c>
+      <c r="I8" t="n">
+        <v>165699.7787210776</v>
+      </c>
+      <c r="J8" t="n">
+        <v>211838.3239061992</v>
+      </c>
+      <c r="K8" t="n">
+        <v>333.04055891752</v>
+      </c>
+      <c r="L8" t="n">
+        <v>363.6790868600463</v>
+      </c>
+      <c r="M8" t="n">
+        <v>407.0623769412713</v>
+      </c>
+      <c r="N8" t="n">
+        <v>460.2589748241735</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.049907182368892</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.04439665493294193</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.8240413300919035</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.7936466142076438</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20-10-2025 08:07:47</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>(Trial) GRU</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[116, 104]</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>512</v>
+      </c>
+      <c r="I9" t="n">
+        <v>105669.7368719414</v>
+      </c>
+      <c r="J9" t="n">
+        <v>172630.1220874654</v>
+      </c>
+      <c r="K9" t="n">
+        <v>243.7941171083998</v>
+      </c>
+      <c r="L9" t="n">
+        <v>298.9106671791087</v>
+      </c>
+      <c r="M9" t="n">
+        <v>325.0688186706646</v>
+      </c>
+      <c r="N9" t="n">
+        <v>415.48781220087</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.03625858623656344</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.03573933935478972</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.8877879795295375</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.8318396363320306</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20-10-2025 08:08:05</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>(Trial) GRU</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>24</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[116, 104]</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>512</v>
+      </c>
+      <c r="I10" t="n">
+        <v>105669.7368719414</v>
+      </c>
+      <c r="J10" t="n">
+        <v>172630.1220874654</v>
+      </c>
+      <c r="K10" t="n">
+        <v>243.7941171083998</v>
+      </c>
+      <c r="L10" t="n">
+        <v>298.9106671791087</v>
+      </c>
+      <c r="M10" t="n">
+        <v>325.0688186706646</v>
+      </c>
+      <c r="N10" t="n">
+        <v>415.48781220087</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.03625858623656344</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.03573933935478972</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.8877879795295375</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.8318396363320306</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20-10-2025 08:36:25</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LSTM_3</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>24</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[35]</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>41</v>
+      </c>
+      <c r="H11" t="n">
+        <v>512</v>
+      </c>
+      <c r="I11" t="n">
+        <v>66546.38517752115</v>
+      </c>
+      <c r="J11" t="n">
+        <v>82335.27565859469</v>
+      </c>
+      <c r="K11" t="n">
+        <v>210.3258603481916</v>
+      </c>
+      <c r="L11" t="n">
+        <v>223.623888973612</v>
+      </c>
+      <c r="M11" t="n">
+        <v>257.9658604884009</v>
+      </c>
+      <c r="N11" t="n">
+        <v>286.9412407769136</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0327830810749048</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.02782940587058205</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.9293335482645093</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.9197965504966081</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20-10-2025 08:38:13</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>24</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>[64, 32]</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F12" t="n">
         <v>0.2</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G12" t="n">
         <v>50</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H12" t="n">
         <v>32</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I12" t="n">
         <v>0.001</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J12" t="n">
         <v>0.002</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K12" t="n">
         <v>0.01</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L12" t="n">
         <v>0.015</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M12" t="n">
         <v>0.03</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N12" t="n">
         <v>0.04</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O12" t="n">
         <v>2.1</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P12" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q12" t="n">
         <v>0.98</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R12" t="n">
         <v>0.97</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20-10-2025 10:21:26</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GRU 24</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>24</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[116, 104]</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>119</v>
+      </c>
+      <c r="H13" t="n">
+        <v>512</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8014.774520371737</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12331.27637610633</v>
+      </c>
+      <c r="K13" t="n">
+        <v>62.03898410845811</v>
+      </c>
+      <c r="L13" t="n">
+        <v>78.96602471479451</v>
+      </c>
+      <c r="M13" t="n">
+        <v>89.52527308180488</v>
+      </c>
+      <c r="N13" t="n">
+        <v>111.0462803344008</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.009431969462546971</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.009786075297960408</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.9914890121675967</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.9879880059566394</v>
       </c>
     </row>
   </sheetData>
